--- a/Resultado.xlsx
+++ b/Resultado.xlsx
@@ -1549,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1560,615 +1560,355 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ref (kW)</t>
+          <t>Potencia [pu]</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tensao</t>
+          <t>C-Escorregamento</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Corrente</t>
+          <t>P_out</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Potencia</t>
+          <t>Pj1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Frequencia</t>
+          <t>Pj2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Temperatura</t>
+          <t>P_sup</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>P_fw</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Velocidade</t>
+          <t>P_fe</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Velocidade_Sinc</t>
+          <t>C-Pj1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Escorregamento</t>
+          <t>C-Pj2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>C-Escorregamento</t>
+          <t>C-P_sup</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>C-Velocidade</t>
+          <t>C-P_out</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>C-Dinamometro</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>C-Torque</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>P_out</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>P_fw</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>P_fe</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Pj1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Pj2</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>P_total_conv</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>C-P_out</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>P_total</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>P_sup</t>
+          <t>Rendimento</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.5</v>
+        <v>1.746363636363636</v>
       </c>
       <c r="B2" t="n">
-        <v>380.5</v>
+        <v>0.03360969185595673</v>
       </c>
       <c r="C2" t="n">
-        <v>32.521</v>
+        <v>16731.46594672374</v>
       </c>
       <c r="D2" t="n">
-        <v>19210</v>
+        <v>586.0482704150554</v>
       </c>
       <c r="E2" t="n">
-        <v>60.027</v>
+        <v>793.0764396183089</v>
       </c>
       <c r="F2" t="n">
-        <v>90.5919926822404</v>
+        <v>872.4547267235125</v>
       </c>
       <c r="G2" t="n">
-        <v>91.80892799999999</v>
+        <v>128.5095196500711</v>
       </c>
       <c r="H2" t="n">
-        <v>1723.020376</v>
+        <v>264.4339714190643</v>
       </c>
       <c r="I2" t="n">
-        <v>1800.81</v>
+        <v>593.2879500604779</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04319701911917415</v>
+        <v>616.8144110739023</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03360969185595673</v>
+        <v>839.0445706035518</v>
       </c>
       <c r="L2" t="n">
-        <v>1740.285330808875</v>
+        <v>16767.90957719293</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91.80892799999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>16731.46594672374</v>
-      </c>
-      <c r="P2" t="n">
-        <v>128.5095196500711</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>264.4339714190643</v>
-      </c>
-      <c r="R2" t="n">
-        <v>586.0482704150554</v>
-      </c>
-      <c r="S2" t="n">
-        <v>793.0764396183089</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1772.0682011025</v>
-      </c>
-      <c r="U2" t="n">
-        <v>16565.47707217399</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2644.522927826012</v>
-      </c>
-      <c r="W2" t="n">
-        <v>872.4547267235125</v>
+        <v>0.8728740019361234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13.75</v>
+        <v>1.416363636363636</v>
       </c>
       <c r="B3" t="n">
-        <v>382.48</v>
+        <v>0.02611754732321887</v>
       </c>
       <c r="C3" t="n">
-        <v>26.412</v>
+        <v>13816.86281370135</v>
       </c>
       <c r="D3" t="n">
-        <v>15580</v>
+        <v>386.552229926797</v>
       </c>
       <c r="E3" t="n">
-        <v>60.02</v>
+        <v>501.0400970098955</v>
       </c>
       <c r="F3" t="n">
-        <v>90.5919926822404</v>
+        <v>585.5405251283091</v>
       </c>
       <c r="G3" t="n">
-        <v>75.24142999999999</v>
+        <v>128.5095196500711</v>
       </c>
       <c r="H3" t="n">
-        <v>1740.157992</v>
+        <v>267.1931910391186</v>
       </c>
       <c r="I3" t="n">
-        <v>1800.6</v>
+        <v>391.3274582691855</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0335677040986339</v>
+        <v>389.7124430741237</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02611754732321887</v>
+        <v>563.5458818475678</v>
       </c>
       <c r="L3" t="n">
-        <v>1753.572744289812</v>
+        <v>13839.71150611993</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>75.24142999999999</v>
-      </c>
-      <c r="O3" t="n">
-        <v>13816.86281370135</v>
-      </c>
-      <c r="P3" t="n">
-        <v>128.5095196500711</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>267.1931910391186</v>
-      </c>
-      <c r="R3" t="n">
-        <v>386.552229926797</v>
-      </c>
-      <c r="S3" t="n">
-        <v>501.0400970098955</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1283.295037625882</v>
-      </c>
-      <c r="U3" t="n">
-        <v>13711.16443724581</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1868.835562754191</v>
-      </c>
-      <c r="W3" t="n">
-        <v>585.5405251283091</v>
+        <v>0.8882998399306761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>1.122</v>
       </c>
       <c r="B4" t="n">
-        <v>384.47</v>
+        <v>0.0198697622862266</v>
       </c>
       <c r="C4" t="n">
-        <v>21.234</v>
+        <v>11080.74142905742</v>
       </c>
       <c r="D4" t="n">
-        <v>12342</v>
+        <v>249.8441768814658</v>
       </c>
       <c r="E4" t="n">
-        <v>59.995</v>
+        <v>301.9112559707501</v>
       </c>
       <c r="F4" t="n">
-        <v>90.5919926822404</v>
+        <v>375.0911051262531</v>
       </c>
       <c r="G4" t="n">
-        <v>59.981884</v>
+        <v>128.5095196500711</v>
       </c>
       <c r="H4" t="n">
-        <v>1753.885956</v>
+        <v>269.9807756193076</v>
       </c>
       <c r="I4" t="n">
-        <v>1799.85</v>
+        <v>252.9305980744079</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0255377081423451</v>
+        <v>234.8424814445504</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0198697622862266</v>
+        <v>358.1421231063027</v>
       </c>
       <c r="L4" t="n">
-        <v>1764.087408349135</v>
+        <v>11097.59450210536</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>59.981884</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11080.74142905742</v>
-      </c>
-      <c r="P4" t="n">
-        <v>128.5095196500711</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>269.9807756193076</v>
-      </c>
-      <c r="R4" t="n">
-        <v>249.8441768814658</v>
-      </c>
-      <c r="S4" t="n">
-        <v>301.9112559707501</v>
-      </c>
-      <c r="T4" t="n">
-        <v>950.2457281215945</v>
-      </c>
-      <c r="U4" t="n">
-        <v>11016.66316675215</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1325.336833247848</v>
-      </c>
-      <c r="W4" t="n">
-        <v>375.0911051262531</v>
+        <v>0.8991731082567946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.25</v>
+        <v>0.8373636363636363</v>
       </c>
       <c r="B5" t="n">
-        <v>386.04</v>
+        <v>0.01431114339225331</v>
       </c>
       <c r="C5" t="n">
-        <v>16.547</v>
+        <v>8314.171809822679</v>
       </c>
       <c r="D5" t="n">
-        <v>9211</v>
+        <v>151.7204560826206</v>
       </c>
       <c r="E5" t="n">
-        <v>60.012</v>
+        <v>161.6250311532695</v>
       </c>
       <c r="F5" t="n">
-        <v>90.5919926822404</v>
+        <v>217.21687203072</v>
       </c>
       <c r="G5" t="n">
-        <v>44.739505</v>
+        <v>128.5095196500711</v>
       </c>
       <c r="H5" t="n">
-        <v>1767.245139</v>
+        <v>272.1902341630622</v>
       </c>
       <c r="I5" t="n">
-        <v>1800.36</v>
+        <v>153.5947172197068</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01839346630673866</v>
+        <v>125.7264722925428</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01431114339225331</v>
+        <v>199.2496412354146</v>
       </c>
       <c r="L5" t="n">
-        <v>1774.594789882323</v>
+        <v>8331.729415439202</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>44.739505</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8314.171809822679</v>
-      </c>
-      <c r="P5" t="n">
-        <v>128.5095196500711</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>272.1902341630622</v>
-      </c>
-      <c r="R5" t="n">
-        <v>151.7204560826206</v>
-      </c>
-      <c r="S5" t="n">
-        <v>161.6250311532695</v>
-      </c>
-      <c r="T5" t="n">
-        <v>714.0452410490234</v>
-      </c>
-      <c r="U5" t="n">
-        <v>8279.737886920257</v>
-      </c>
-      <c r="V5" t="n">
-        <v>931.2621130797434</v>
-      </c>
-      <c r="W5" t="n">
-        <v>217.21687203072</v>
+        <v>0.9045412458407558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.5</v>
+        <v>0.5693636363636364</v>
       </c>
       <c r="B6" t="n">
-        <v>387.61</v>
+        <v>0.009358171874937588</v>
       </c>
       <c r="C6" t="n">
-        <v>12.549</v>
+        <v>5598.425434098356</v>
       </c>
       <c r="D6" t="n">
-        <v>6263</v>
+        <v>87.26173513337358</v>
       </c>
       <c r="E6" t="n">
-        <v>60.019</v>
+        <v>70.97904215055725</v>
       </c>
       <c r="F6" t="n">
-        <v>90.5919926822404</v>
+        <v>118.5015434718307</v>
       </c>
       <c r="G6" t="n">
-        <v>29.971647</v>
+        <v>128.5095196500711</v>
       </c>
       <c r="H6" t="n">
-        <v>1778.9134</v>
+        <v>274.4086967428804</v>
       </c>
       <c r="I6" t="n">
-        <v>1800.57</v>
+        <v>88.33971290339909</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01202763569314163</v>
+        <v>55.21556848790396</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009358171874937588</v>
+        <v>89.4203605138336</v>
       </c>
       <c r="L6" t="n">
-        <v>1783.719956467143</v>
+        <v>5627.106141701912</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>29.971647</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5598.425434098356</v>
-      </c>
-      <c r="P6" t="n">
-        <v>128.5095196500711</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>274.4086967428804</v>
-      </c>
-      <c r="R6" t="n">
-        <v>87.26173513337358</v>
-      </c>
-      <c r="S6" t="n">
-        <v>70.97904215055725</v>
-      </c>
-      <c r="T6" t="n">
-        <v>561.1589936768823</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5583.339462851287</v>
-      </c>
-      <c r="V6" t="n">
-        <v>679.660537148713</v>
-      </c>
-      <c r="W6" t="n">
-        <v>118.5015434718307</v>
+        <v>0.8984681688810333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.75</v>
+        <v>0.3091818181818182</v>
       </c>
       <c r="B7" t="n">
-        <v>389.07</v>
+        <v>0.004785434207151845</v>
       </c>
       <c r="C7" t="n">
-        <v>9.436</v>
+        <v>2870.059000547638</v>
       </c>
       <c r="D7" t="n">
-        <v>3401</v>
+        <v>49.33799199500308</v>
       </c>
       <c r="E7" t="n">
-        <v>60.003</v>
+        <v>18.9139157472586</v>
       </c>
       <c r="F7" t="n">
-        <v>90.5919926822404</v>
+        <v>61.63643168926802</v>
       </c>
       <c r="G7" t="n">
-        <v>15.298585</v>
+        <v>128.5095196500711</v>
       </c>
       <c r="H7" t="n">
-        <v>1789.018542</v>
+        <v>276.479805490833</v>
       </c>
       <c r="I7" t="n">
-        <v>1800.09</v>
+        <v>49.94748318271576</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006150502474876197</v>
+        <v>14.7131654251572</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004785434207151845</v>
+        <v>23.29795093183195</v>
       </c>
       <c r="L7" t="n">
-        <v>1791.475787738048</v>
+        <v>2908.052075319391</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15.298585</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2870.059000547638</v>
-      </c>
-      <c r="P7" t="n">
-        <v>128.5095196500711</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>276.479805490833</v>
-      </c>
-      <c r="R7" t="n">
-        <v>49.33799199500308</v>
-      </c>
-      <c r="S7" t="n">
-        <v>18.9139157472586</v>
-      </c>
-      <c r="T7" t="n">
-        <v>473.2412328831658</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2866.122335427566</v>
-      </c>
-      <c r="V7" t="n">
-        <v>534.8776645724338</v>
-      </c>
-      <c r="W7" t="n">
-        <v>61.63643168926802</v>
+        <v>0.8550579462862072</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.06936363636363636</v>
       </c>
       <c r="B8" t="n">
-        <v>390.57</v>
+        <v>0.0007429296193905878</v>
       </c>
       <c r="C8" t="n">
-        <v>7.937</v>
+        <v>297.1730248803298</v>
       </c>
       <c r="D8" t="n">
-        <v>763</v>
+        <v>34.90746943015787</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>0.4291846362472814</v>
       </c>
       <c r="F8" t="n">
-        <v>90.5919926822404</v>
+        <v>23.42806001776597</v>
       </c>
       <c r="G8" t="n">
-        <v>1.577724</v>
+        <v>128.5095196500711</v>
       </c>
       <c r="H8" t="n">
-        <v>1798.281263</v>
+        <v>278.615766384779</v>
       </c>
       <c r="I8" t="n">
-        <v>1800</v>
+        <v>35.33869482346505</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000954853888888844</v>
+        <v>0.3336092312236006</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0007429296193905878</v>
+        <v>0.2477862839297776</v>
       </c>
       <c r="L8" t="n">
-        <v>1798.662726685097</v>
+        <v>319.9546236265314</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.577724</v>
-      </c>
-      <c r="O8" t="n">
-        <v>297.1730248803298</v>
-      </c>
-      <c r="P8" t="n">
-        <v>128.5095196500711</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>278.615766384779</v>
-      </c>
-      <c r="R8" t="n">
-        <v>34.90746943015787</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.4291846362472814</v>
-      </c>
-      <c r="T8" t="n">
-        <v>442.4619401012553</v>
-      </c>
-      <c r="U8" t="n">
-        <v>297.1099998809787</v>
-      </c>
-      <c r="V8" t="n">
-        <v>465.8900001190213</v>
-      </c>
-      <c r="W8" t="n">
-        <v>23.42806001776597</v>
+        <v>0.4193376456442089</v>
       </c>
     </row>
   </sheetData>
